--- a/data/Zoop_Code_Data.xlsx
+++ b/data/Zoop_Code_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\YOLO BYPASS DATA\Data Review\NDFS_data_review\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\Data Review\NDFS_data_review\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1F624C7-4B41-41A1-AA6E-6C41CBC66DAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4877FB6-F8D9-44CB-B0C7-5C02667B4658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28690" yWindow="-110" windowWidth="29020" windowHeight="15820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="92">
   <si>
     <t>Site</t>
   </si>
@@ -276,6 +276,39 @@
   </si>
   <si>
     <t>ES0923B0568</t>
+  </si>
+  <si>
+    <t>ES0923B0578</t>
+  </si>
+  <si>
+    <t>ES0923B0580</t>
+  </si>
+  <si>
+    <t>ES0923B0582</t>
+  </si>
+  <si>
+    <t>ES0923B0583</t>
+  </si>
+  <si>
+    <t>ES0923B0584</t>
+  </si>
+  <si>
+    <t>ES0923B0585</t>
+  </si>
+  <si>
+    <t>ES0923B0586</t>
+  </si>
+  <si>
+    <t>ES0923B0587</t>
+  </si>
+  <si>
+    <t>ES0923B0588</t>
+  </si>
+  <si>
+    <t>ES0923B0589</t>
+  </si>
+  <si>
+    <t>ES0923B0590</t>
   </si>
 </sst>
 </file>
@@ -317,7 +350,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -340,22 +373,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -379,9 +401,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -698,9 +717,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E65"/>
+  <dimension ref="A1:E76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
       <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
@@ -1558,7 +1577,9 @@
       <c r="D50" s="6">
         <v>0.48333333333333334</v>
       </c>
-      <c r="E50" s="1"/>
+      <c r="E50" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="4" t="s">
@@ -1675,7 +1696,7 @@
       <c r="D57" s="6">
         <v>0.39027777777777778</v>
       </c>
-      <c r="E57" s="9">
+      <c r="E57" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1692,7 +1713,7 @@
       <c r="D58" s="6">
         <v>0.29305555555555557</v>
       </c>
-      <c r="E58" s="9">
+      <c r="E58" s="1">
         <v>2</v>
       </c>
     </row>
@@ -1709,7 +1730,7 @@
       <c r="D59" s="6">
         <v>0.3034722222222222</v>
       </c>
-      <c r="E59" s="9">
+      <c r="E59" s="1">
         <v>1</v>
       </c>
     </row>
@@ -1726,7 +1747,7 @@
       <c r="D60" s="6">
         <v>0.36874999999999997</v>
       </c>
-      <c r="E60" s="9">
+      <c r="E60" s="1">
         <v>2</v>
       </c>
     </row>
@@ -1743,7 +1764,7 @@
       <c r="D61" s="6">
         <v>0.46666666666666662</v>
       </c>
-      <c r="E61" s="9">
+      <c r="E61" s="1">
         <v>2</v>
       </c>
     </row>
@@ -1760,7 +1781,7 @@
       <c r="D62" s="6">
         <v>0.35486111111111113</v>
       </c>
-      <c r="E62" s="9">
+      <c r="E62" s="1">
         <v>2</v>
       </c>
     </row>
@@ -1777,7 +1798,7 @@
       <c r="D63" s="6">
         <v>0.32291666666666669</v>
       </c>
-      <c r="E63" s="9">
+      <c r="E63" s="1">
         <v>3</v>
       </c>
     </row>
@@ -1794,7 +1815,7 @@
       <c r="D64" s="6">
         <v>0.28680555555555554</v>
       </c>
-      <c r="E64" s="9">
+      <c r="E64" s="1">
         <v>2</v>
       </c>
     </row>
@@ -1811,8 +1832,195 @@
       <c r="D65" s="6">
         <v>0.38472222222222219</v>
       </c>
-      <c r="E65" s="9">
-        <v>2</v>
+      <c r="E65" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A66" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C66" s="5">
+        <v>45188</v>
+      </c>
+      <c r="D66" s="6">
+        <v>0.4465277777777778</v>
+      </c>
+      <c r="E66" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A67" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C67" s="5">
+        <v>45188</v>
+      </c>
+      <c r="D67" s="6">
+        <v>0.31805555555555554</v>
+      </c>
+      <c r="E67" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A68" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C68" s="5">
+        <v>45188</v>
+      </c>
+      <c r="D68" s="6">
+        <v>0.30833333333333335</v>
+      </c>
+      <c r="E68" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A69" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C69" s="5">
+        <v>45188</v>
+      </c>
+      <c r="D69" s="6">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="E69" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A70" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C70" s="5">
+        <v>45188</v>
+      </c>
+      <c r="D70" s="6">
+        <v>0.47430555555555554</v>
+      </c>
+      <c r="E70" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A71" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C71" s="5">
+        <v>45188</v>
+      </c>
+      <c r="D71" s="6">
+        <v>0.39930555555555558</v>
+      </c>
+      <c r="E71" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A72" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C72" s="5">
+        <v>45188</v>
+      </c>
+      <c r="D72" s="6">
+        <v>0.375</v>
+      </c>
+      <c r="E72" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A73" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C73" s="5">
+        <v>45188</v>
+      </c>
+      <c r="D73" s="6">
+        <v>0.35138888888888892</v>
+      </c>
+      <c r="E73" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A74" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C74" s="5">
+        <v>45188</v>
+      </c>
+      <c r="D74" s="6">
+        <v>0.32222222222222224</v>
+      </c>
+      <c r="E74" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A75" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C75" s="5">
+        <v>45188</v>
+      </c>
+      <c r="D75" s="6">
+        <v>0.28958333333333336</v>
+      </c>
+      <c r="E75" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A76" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C76" s="5">
+        <v>45187</v>
+      </c>
+      <c r="D76" s="6">
+        <v>0.36388888888888887</v>
+      </c>
+      <c r="E76" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1822,15 +2030,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="0a814b8e-0cf5-46e4-a9c0-bfeb2cb7b5dc">
@@ -1840,6 +2039,15 @@
     <Doc_x0020_Category xmlns="0A814B8E-0CF5-46E4-A9C0-BFEB2CB7B5DC" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2094,14 +2302,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73759079-37A7-4459-A789-37978861D69F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C68E028A-E7EC-4DC7-A670-3E977567BFA6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -2109,6 +2309,14 @@
     <ds:schemaRef ds:uri="0a814b8e-0cf5-46e4-a9c0-bfeb2cb7b5dc"/>
     <ds:schemaRef ds:uri="6f98d64a-07ba-4b39-8e6f-dd01000050b1"/>
     <ds:schemaRef ds:uri="0A814B8E-0CF5-46E4-A9C0-BFEB2CB7B5DC"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73759079-37A7-4459-A789-37978861D69F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/data/Zoop_Code_Data.xlsx
+++ b/data/Zoop_Code_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\Data Review\NDFS_data_review\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4877FB6-F8D9-44CB-B0C7-5C02667B4658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F047413-8137-46C2-9016-1382CBE545F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28690" yWindow="-110" windowWidth="29020" windowHeight="15820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="60" yWindow="-16310" windowWidth="29020" windowHeight="15820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="103">
   <si>
     <t>Site</t>
   </si>
@@ -309,6 +309,39 @@
   </si>
   <si>
     <t>ES0923B0590</t>
+  </si>
+  <si>
+    <t>ES1023B0600</t>
+  </si>
+  <si>
+    <t>ES1023B0602</t>
+  </si>
+  <si>
+    <t>ES1023B0604</t>
+  </si>
+  <si>
+    <t>ES1023B0605</t>
+  </si>
+  <si>
+    <t>ES1023B0606</t>
+  </si>
+  <si>
+    <t>ES1023B0607</t>
+  </si>
+  <si>
+    <t>ES1023B0608</t>
+  </si>
+  <si>
+    <t>ES1023B0609</t>
+  </si>
+  <si>
+    <t>ES1023B0610</t>
+  </si>
+  <si>
+    <t>ES1023B0611</t>
+  </si>
+  <si>
+    <t>ES1023B0612</t>
   </si>
 </sst>
 </file>
@@ -717,10 +750,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E76"/>
+  <dimension ref="A1:E87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E65" sqref="E65"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="A88" sqref="A88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2023,6 +2056,193 @@
         <v>1</v>
       </c>
     </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A77" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C77" s="3">
+        <v>45202</v>
+      </c>
+      <c r="D77" s="2">
+        <v>0.39513888888888887</v>
+      </c>
+      <c r="E77" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A78" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C78" s="3">
+        <v>45202</v>
+      </c>
+      <c r="D78" s="2">
+        <v>0.28888888888888892</v>
+      </c>
+      <c r="E78" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A79" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C79" s="3">
+        <v>45202</v>
+      </c>
+      <c r="D79" s="2">
+        <v>0.31111111111111112</v>
+      </c>
+      <c r="E79" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A80" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C80" s="3">
+        <v>45202</v>
+      </c>
+      <c r="D80" s="2">
+        <v>0.37777777777777777</v>
+      </c>
+      <c r="E80" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A81" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C81" s="3">
+        <v>45202</v>
+      </c>
+      <c r="D81" s="2">
+        <v>0.4604166666666667</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A82" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C82" s="3">
+        <v>45202</v>
+      </c>
+      <c r="D82" s="2">
+        <v>0.39027777777777778</v>
+      </c>
+      <c r="E82" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A83" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C83" s="3">
+        <v>45202</v>
+      </c>
+      <c r="D83" s="2">
+        <v>0.37361111111111112</v>
+      </c>
+      <c r="E83" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A84" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C84" s="3">
+        <v>45202</v>
+      </c>
+      <c r="D84" s="2">
+        <v>0.35069444444444442</v>
+      </c>
+      <c r="E84" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A85" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C85" s="3">
+        <v>45202</v>
+      </c>
+      <c r="D85" s="2">
+        <v>0.32222222222222224</v>
+      </c>
+      <c r="E85" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A86" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C86" s="3">
+        <v>45202</v>
+      </c>
+      <c r="D86" s="2">
+        <v>0.29305555555555557</v>
+      </c>
+      <c r="E86" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A87" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C87" s="3">
+        <v>45202</v>
+      </c>
+      <c r="D87" s="2">
+        <v>0.39444444444444443</v>
+      </c>
+      <c r="E87" s="1">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2030,6 +2250,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="0a814b8e-0cf5-46e4-a9c0-bfeb2cb7b5dc">
@@ -2039,15 +2268,6 @@
     <Doc_x0020_Category xmlns="0A814B8E-0CF5-46E4-A9C0-BFEB2CB7B5DC" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2302,6 +2522,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73759079-37A7-4459-A789-37978861D69F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C68E028A-E7EC-4DC7-A670-3E977567BFA6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -2309,14 +2537,6 @@
     <ds:schemaRef ds:uri="0a814b8e-0cf5-46e4-a9c0-bfeb2cb7b5dc"/>
     <ds:schemaRef ds:uri="6f98d64a-07ba-4b39-8e6f-dd01000050b1"/>
     <ds:schemaRef ds:uri="0A814B8E-0CF5-46E4-A9C0-BFEB2CB7B5DC"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73759079-37A7-4459-A789-37978861D69F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
